--- a/SCU/SCU DSP.xlsx
+++ b/SCU/SCU DSP.xlsx
@@ -608,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -695,6 +695,128 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,128 +835,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -847,9 +850,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -887,7 +890,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -959,7 +962,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1139,7 +1142,7 @@
   <dimension ref="A1:AQ170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1150,40 @@
     <col min="1" max="50" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="42"/>
+    </row>
     <row r="2" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E2" s="1">
         <v>31</v>
@@ -1247,63 +1283,63 @@
       </c>
     </row>
     <row r="3" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="80">
-        <v>0</v>
-      </c>
-      <c r="F3" s="80">
-        <v>0</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="39">
+        <v>0</v>
+      </c>
+      <c r="F3" s="39">
+        <v>0</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="36" t="s">
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="37" t="s">
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="81"/>
     </row>
     <row r="4" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="6">
         <v>0</v>
       </c>
@@ -1316,40 +1352,40 @@
       <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="43"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
     </row>
     <row r="6" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="6">
         <v>0</v>
       </c>
@@ -1362,40 +1398,40 @@
       <c r="J6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="43"/>
-      <c r="AJ6" s="43"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="57"/>
+      <c r="AJ6" s="57"/>
     </row>
     <row r="7" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="41"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="6">
         <v>0</v>
       </c>
@@ -1408,40 +1444,40 @@
       <c r="J7" s="6">
         <v>0</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="K7" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
     </row>
     <row r="8" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="6">
         <v>0</v>
       </c>
@@ -1454,40 +1490,40 @@
       <c r="J8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="K8" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="43"/>
-      <c r="AJ8" s="43"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="57"/>
     </row>
     <row r="9" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="6">
         <v>0</v>
       </c>
@@ -1500,40 +1536,40 @@
       <c r="J9" s="6">
         <v>0</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="K9" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="43"/>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="43"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
     </row>
     <row r="10" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="41"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="6">
         <v>0</v>
       </c>
@@ -1546,40 +1582,40 @@
       <c r="J10" s="6">
         <v>1</v>
       </c>
-      <c r="K10" s="42" t="s">
+      <c r="K10" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="43"/>
-      <c r="AE10" s="43"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="43"/>
-      <c r="AH10" s="43"/>
-      <c r="AI10" s="43"/>
-      <c r="AJ10" s="43"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="57"/>
     </row>
     <row r="11" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="6">
         <v>0</v>
       </c>
@@ -1592,40 +1628,40 @@
       <c r="J11" s="6">
         <v>0</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="K11" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="43"/>
-      <c r="AJ11" s="43"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="57"/>
+      <c r="AJ11" s="57"/>
     </row>
     <row r="12" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="41"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="6">
         <v>1</v>
       </c>
@@ -1638,40 +1674,40 @@
       <c r="J12" s="6">
         <v>0</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="K12" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="43"/>
-      <c r="AG12" s="43"/>
-      <c r="AH12" s="43"/>
-      <c r="AI12" s="43"/>
-      <c r="AJ12" s="43"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="57"/>
     </row>
     <row r="13" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="41"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="6">
         <v>1</v>
       </c>
@@ -1684,40 +1720,40 @@
       <c r="J13" s="6">
         <v>1</v>
       </c>
-      <c r="K13" s="42" t="s">
+      <c r="K13" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="43"/>
-      <c r="AH13" s="43"/>
-      <c r="AI13" s="43"/>
-      <c r="AJ13" s="43"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="57"/>
+      <c r="AJ13" s="57"/>
     </row>
     <row r="14" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="41"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="6">
         <v>1</v>
       </c>
@@ -1730,40 +1766,40 @@
       <c r="J14" s="6">
         <v>0</v>
       </c>
-      <c r="K14" s="42" t="s">
+      <c r="K14" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="43"/>
-      <c r="AF14" s="43"/>
-      <c r="AG14" s="43"/>
-      <c r="AH14" s="43"/>
-      <c r="AI14" s="43"/>
-      <c r="AJ14" s="43"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="57"/>
+      <c r="AJ14" s="57"/>
     </row>
     <row r="15" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="41"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="6">
         <v>1</v>
       </c>
@@ -1776,40 +1812,40 @@
       <c r="J15" s="6">
         <v>1</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="K15" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="43"/>
-      <c r="AC15" s="43"/>
-      <c r="AD15" s="43"/>
-      <c r="AE15" s="43"/>
-      <c r="AF15" s="43"/>
-      <c r="AG15" s="43"/>
-      <c r="AH15" s="43"/>
-      <c r="AI15" s="43"/>
-      <c r="AJ15" s="43"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="57"/>
+      <c r="AJ15" s="57"/>
     </row>
     <row r="16" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="6">
         <v>1</v>
       </c>
@@ -1822,42 +1858,42 @@
       <c r="J16" s="6">
         <v>1</v>
       </c>
-      <c r="K16" s="42" t="s">
+      <c r="K16" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="43"/>
-      <c r="AD16" s="43"/>
-      <c r="AE16" s="43"/>
-      <c r="AF16" s="43"/>
-      <c r="AG16" s="43"/>
-      <c r="AH16" s="43"/>
-      <c r="AI16" s="43"/>
-      <c r="AJ16" s="43"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
+      <c r="AJ16" s="57"/>
     </row>
     <row r="17" spans="8:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="8:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="55"/>
       <c r="K18" s="7">
         <v>0</v>
       </c>
@@ -1870,157 +1906,157 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="43"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="43"/>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="43"/>
-      <c r="AG18" s="43"/>
-      <c r="AH18" s="43"/>
-      <c r="AI18" s="43"/>
-      <c r="AJ18" s="43"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="57"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="57"/>
+      <c r="AJ18" s="57"/>
       <c r="AN18" s="8"/>
       <c r="AO18" s="23"/>
       <c r="AP18" s="23"/>
       <c r="AQ18" s="23"/>
     </row>
     <row r="19" spans="8:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="7">
-        <v>1</v>
-      </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="78"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="43"/>
-      <c r="AC19" s="43"/>
-      <c r="AD19" s="43"/>
-      <c r="AE19" s="43"/>
-      <c r="AF19" s="43"/>
-      <c r="AG19" s="43"/>
-      <c r="AH19" s="43"/>
-      <c r="AI19" s="43"/>
-      <c r="AJ19" s="43"/>
+      <c r="H19" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="45"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="7">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="57"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="57"/>
+      <c r="AJ19" s="57"/>
       <c r="AN19" s="8"/>
       <c r="AO19" s="24"/>
       <c r="AP19" s="24"/>
       <c r="AQ19" s="24"/>
     </row>
     <row r="20" spans="8:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="9"/>
+      <c r="H20" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="45"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="7">
         <v>1</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="43"/>
-      <c r="AF20" s="43"/>
-      <c r="AG20" s="43"/>
-      <c r="AH20" s="43"/>
-      <c r="AI20" s="43"/>
-      <c r="AJ20" s="43"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="76"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="57"/>
+      <c r="AJ20" s="57"/>
       <c r="AN20" s="8"/>
       <c r="AO20" s="24"/>
       <c r="AP20" s="24"/>
       <c r="AQ20" s="24"/>
     </row>
     <row r="21" spans="8:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H21" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="7">
-        <v>1</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1</v>
-      </c>
-      <c r="N21" s="77" t="s">
+      <c r="H21" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="45"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="7">
+        <v>1</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="O21" s="78"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="43"/>
-      <c r="AC21" s="43"/>
-      <c r="AD21" s="43"/>
-      <c r="AE21" s="43"/>
-      <c r="AF21" s="43"/>
-      <c r="AG21" s="43"/>
-      <c r="AH21" s="43"/>
-      <c r="AI21" s="43"/>
-      <c r="AJ21" s="43"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="57"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="57"/>
+      <c r="AJ21" s="57"/>
       <c r="AN21" s="8"/>
       <c r="AO21" s="24"/>
       <c r="AP21" s="24"/>
@@ -2033,11 +2069,11 @@
       <c r="AQ22" s="24"/>
     </row>
     <row r="23" spans="8:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N23" s="40" t="s">
+      <c r="N23" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="40"/>
-      <c r="P23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="55"/>
       <c r="Q23" s="11">
         <v>0</v>
       </c>
@@ -2056,157 +2092,157 @@
       <c r="AQ23" s="24"/>
     </row>
     <row r="24" spans="8:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N24" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" s="40"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="11">
-        <v>1</v>
-      </c>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="U24" s="78"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="44"/>
-      <c r="AH24" s="44"/>
-      <c r="AI24" s="44"/>
-      <c r="AJ24" s="44"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
+      <c r="N24" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="45"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="11">
+        <v>0</v>
+      </c>
+      <c r="S24" s="11">
+        <v>1</v>
+      </c>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="60"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="60"/>
+      <c r="AJ24" s="60"/>
       <c r="AN24" s="8"/>
       <c r="AO24" s="24"/>
       <c r="AP24" s="24"/>
       <c r="AQ24" s="24"/>
     </row>
     <row r="25" spans="8:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N25" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="O25" s="40"/>
-      <c r="P25" s="45"/>
+      <c r="N25" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25" s="45"/>
+      <c r="P25" s="55"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
-      <c r="W25" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="44"/>
-      <c r="AG25" s="44"/>
-      <c r="AH25" s="44"/>
-      <c r="AI25" s="44"/>
-      <c r="AJ25" s="44"/>
+      <c r="W25" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="60"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="60"/>
+      <c r="AI25" s="60"/>
+      <c r="AJ25" s="60"/>
       <c r="AN25" s="8"/>
       <c r="AO25" s="24"/>
       <c r="AP25" s="24"/>
       <c r="AQ25" s="24"/>
     </row>
     <row r="26" spans="8:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N26" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="O26" s="40"/>
-      <c r="P26" s="45"/>
+      <c r="N26" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="O26" s="45"/>
+      <c r="P26" s="55"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="11">
         <v>1</v>
       </c>
       <c r="S26" s="11">
-        <v>0</v>
-      </c>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44"/>
-      <c r="AJ26" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="T26" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" s="76"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="60"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="60"/>
+      <c r="AI26" s="60"/>
+      <c r="AJ26" s="60"/>
       <c r="AN26" s="8"/>
-      <c r="AO26" s="24"/>
-      <c r="AP26" s="24"/>
-      <c r="AQ26" s="24"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="25"/>
+      <c r="AQ26" s="25"/>
     </row>
     <row r="27" spans="8:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N27" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="O27" s="40"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="11">
-        <v>1</v>
-      </c>
-      <c r="S27" s="11">
-        <v>1</v>
-      </c>
-      <c r="T27" s="77" t="s">
+      <c r="N27" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27" s="45"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="11">
+        <v>1</v>
+      </c>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="U27" s="78"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="44"/>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
-      <c r="AJ27" s="44"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="60"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="60"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="60"/>
+      <c r="AG27" s="60"/>
+      <c r="AH27" s="60"/>
+      <c r="AI27" s="60"/>
+      <c r="AJ27" s="60"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="13"/>
+      <c r="AM27" s="13"/>
       <c r="AN27" s="8"/>
-      <c r="AO27" s="25"/>
-      <c r="AP27" s="25"/>
-      <c r="AQ27" s="25"/>
+      <c r="AO27" s="24"/>
+      <c r="AP27" s="24"/>
+      <c r="AQ27" s="24"/>
     </row>
     <row r="28" spans="8:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AN28" s="8"/>
@@ -2215,11 +2251,11 @@
       <c r="AQ28" s="24"/>
     </row>
     <row r="29" spans="8:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T29" s="40" t="s">
+      <c r="T29" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="40"/>
-      <c r="V29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="55"/>
       <c r="W29" s="15">
         <v>0</v>
       </c>
@@ -2247,76 +2283,76 @@
       <c r="AQ29" s="24"/>
     </row>
     <row r="30" spans="8:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T30" s="40" t="s">
+      <c r="T30" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="U30" s="40"/>
-      <c r="V30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="55"/>
       <c r="W30" s="15">
         <v>0</v>
       </c>
       <c r="X30" s="15">
         <v>1</v>
       </c>
-      <c r="Y30" s="46" t="s">
+      <c r="Y30" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="47"/>
-      <c r="AB30" s="48"/>
-      <c r="AC30" s="49" t="s">
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="74"/>
+      <c r="AC30" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="50"/>
-      <c r="AH30" s="50"/>
-      <c r="AI30" s="50"/>
-      <c r="AJ30" s="51"/>
-      <c r="AK30" s="42" t="s">
+      <c r="AD30" s="64"/>
+      <c r="AE30" s="64"/>
+      <c r="AF30" s="64"/>
+      <c r="AG30" s="64"/>
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="64"/>
+      <c r="AJ30" s="65"/>
+      <c r="AK30" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="AL30" s="44"/>
-      <c r="AM30" s="44"/>
+      <c r="AL30" s="60"/>
+      <c r="AM30" s="60"/>
       <c r="AN30" s="8"/>
       <c r="AO30" s="24"/>
       <c r="AP30" s="24"/>
       <c r="AQ30" s="24"/>
     </row>
     <row r="31" spans="8:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T31" s="40" t="s">
+      <c r="T31" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="U31" s="40"/>
-      <c r="V31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="55"/>
       <c r="W31" s="15">
         <v>1</v>
       </c>
       <c r="X31" s="15">
         <v>1</v>
       </c>
-      <c r="Y31" s="46" t="s">
+      <c r="Y31" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="Z31" s="47"/>
-      <c r="AA31" s="47"/>
-      <c r="AB31" s="48"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="73"/>
+      <c r="AB31" s="74"/>
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
       <c r="AE31" s="9"/>
       <c r="AF31" s="9"/>
-      <c r="AG31" s="60" t="s">
+      <c r="AG31" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="AH31" s="61"/>
-      <c r="AI31" s="61"/>
-      <c r="AJ31" s="62"/>
-      <c r="AK31" s="42" t="s">
+      <c r="AH31" s="67"/>
+      <c r="AI31" s="67"/>
+      <c r="AJ31" s="68"/>
+      <c r="AK31" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="AL31" s="44"/>
-      <c r="AM31" s="44"/>
+      <c r="AL31" s="60"/>
+      <c r="AM31" s="60"/>
       <c r="AN31" s="8"/>
       <c r="AO31" s="24"/>
       <c r="AP31" s="24"/>
@@ -2338,11 +2374,11 @@
       <c r="P33" s="33">
         <v>0</v>
       </c>
-      <c r="Q33" s="52" t="s">
+      <c r="Q33" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="R33" s="53"/>
-      <c r="S33" s="54"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="49"/>
       <c r="T33" s="33">
         <v>0</v>
       </c>
@@ -2352,40 +2388,40 @@
       <c r="V33" s="33">
         <v>0</v>
       </c>
-      <c r="Y33" s="72">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="72">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="72">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="72">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="42" t="s">
+      <c r="Y33" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="AD33" s="44"/>
-      <c r="AE33" s="44"/>
-      <c r="AG33" s="76">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="76">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="76">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="76">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="42" t="s">
+      <c r="AD33" s="60"/>
+      <c r="AE33" s="60"/>
+      <c r="AG33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="AL33" s="44"/>
-      <c r="AM33" s="44"/>
+      <c r="AL33" s="60"/>
+      <c r="AM33" s="60"/>
       <c r="AN33" s="8"/>
       <c r="AO33" s="24"/>
       <c r="AP33" s="24"/>
@@ -2401,11 +2437,11 @@
       <c r="P34" s="33">
         <v>1</v>
       </c>
-      <c r="Q34" s="52" t="s">
+      <c r="Q34" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="R34" s="53"/>
-      <c r="S34" s="54"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="49"/>
       <c r="T34" s="33">
         <v>0</v>
       </c>
@@ -2415,40 +2451,40 @@
       <c r="V34" s="33">
         <v>1</v>
       </c>
-      <c r="Y34" s="72">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="72">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="72">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="72">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="42" t="s">
+      <c r="Y34" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="AD34" s="44"/>
-      <c r="AE34" s="44"/>
-      <c r="AG34" s="76">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="76">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="76">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="76">
-        <v>1</v>
-      </c>
-      <c r="AK34" s="42" t="s">
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+      <c r="AG34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="AL34" s="44"/>
-      <c r="AM34" s="44"/>
+      <c r="AL34" s="60"/>
+      <c r="AM34" s="60"/>
       <c r="AN34" s="8"/>
       <c r="AO34" s="17"/>
       <c r="AP34" s="17"/>
@@ -2464,11 +2500,11 @@
       <c r="P35" s="33">
         <v>0</v>
       </c>
-      <c r="Q35" s="52" t="s">
+      <c r="Q35" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="R35" s="53"/>
-      <c r="S35" s="54"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="49"/>
       <c r="T35" s="33">
         <v>0</v>
       </c>
@@ -2478,40 +2514,40 @@
       <c r="V35" s="33">
         <v>0</v>
       </c>
-      <c r="Y35" s="72">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="72">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="72">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="72">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="42" t="s">
+      <c r="Y35" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="34">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="AD35" s="44"/>
-      <c r="AE35" s="44"/>
-      <c r="AG35" s="76">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="76">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="76">
-        <v>1</v>
-      </c>
-      <c r="AJ35" s="76">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="42" t="s">
+      <c r="AD35" s="60"/>
+      <c r="AE35" s="60"/>
+      <c r="AG35" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="38">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="AL35" s="44"/>
-      <c r="AM35" s="44"/>
+      <c r="AL35" s="60"/>
+      <c r="AM35" s="60"/>
       <c r="AN35" s="8"/>
       <c r="AO35" s="17"/>
       <c r="AP35" s="17"/>
@@ -2527,11 +2563,11 @@
       <c r="P36" s="33">
         <v>1</v>
       </c>
-      <c r="Q36" s="52" t="s">
+      <c r="Q36" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="R36" s="53"/>
-      <c r="S36" s="54"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="49"/>
       <c r="T36" s="33">
         <v>0</v>
       </c>
@@ -2541,40 +2577,40 @@
       <c r="V36" s="33">
         <v>1</v>
       </c>
-      <c r="Y36" s="72">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="72">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="72">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="72">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="42" t="s">
+      <c r="Y36" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="34">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AD36" s="44"/>
-      <c r="AE36" s="44"/>
-      <c r="AG36" s="76">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="76">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="76">
-        <v>1</v>
-      </c>
-      <c r="AJ36" s="76">
-        <v>1</v>
-      </c>
-      <c r="AK36" s="42" t="s">
+      <c r="AD36" s="60"/>
+      <c r="AE36" s="60"/>
+      <c r="AG36" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="38">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="AL36" s="44"/>
-      <c r="AM36" s="44"/>
+      <c r="AL36" s="60"/>
+      <c r="AM36" s="60"/>
       <c r="AN36" s="8"/>
       <c r="AO36" s="17"/>
       <c r="AP36" s="17"/>
@@ -2590,11 +2626,11 @@
       <c r="P37" s="33">
         <v>0</v>
       </c>
-      <c r="Q37" s="52" t="s">
+      <c r="Q37" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="R37" s="53"/>
-      <c r="S37" s="54"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="49"/>
       <c r="T37" s="33">
         <v>1</v>
       </c>
@@ -2604,40 +2640,40 @@
       <c r="V37" s="33">
         <v>0</v>
       </c>
-      <c r="Y37" s="72">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="72">
-        <v>1</v>
-      </c>
-      <c r="AA37" s="72">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="72">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="55" t="s">
+      <c r="Y37" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="AD37" s="56"/>
-      <c r="AE37" s="56"/>
-      <c r="AG37" s="76">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="76">
-        <v>1</v>
-      </c>
-      <c r="AI37" s="76">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="76">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="42" t="s">
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59"/>
+      <c r="AG37" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="AL37" s="44"/>
-      <c r="AM37" s="44"/>
+      <c r="AL37" s="60"/>
+      <c r="AM37" s="60"/>
       <c r="AN37" s="8"/>
       <c r="AO37" s="17"/>
       <c r="AP37" s="17"/>
@@ -2653,11 +2689,11 @@
       <c r="P38" s="33">
         <v>1</v>
       </c>
-      <c r="Q38" s="52" t="s">
+      <c r="Q38" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="R38" s="53"/>
-      <c r="S38" s="54"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="49"/>
       <c r="T38" s="33">
         <v>1</v>
       </c>
@@ -2667,40 +2703,40 @@
       <c r="V38" s="33">
         <v>1</v>
       </c>
-      <c r="Y38" s="72">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="72">
-        <v>1</v>
-      </c>
-      <c r="AA38" s="72">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="72">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="55" t="s">
+      <c r="Y38" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="AD38" s="56"/>
-      <c r="AE38" s="56"/>
-      <c r="AG38" s="76">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="76">
-        <v>1</v>
-      </c>
-      <c r="AI38" s="76">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="76">
-        <v>1</v>
-      </c>
-      <c r="AK38" s="42" t="s">
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59"/>
+      <c r="AG38" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="AL38" s="44"/>
-      <c r="AM38" s="44"/>
+      <c r="AL38" s="60"/>
+      <c r="AM38" s="60"/>
       <c r="AN38" s="8"/>
       <c r="AO38" s="17"/>
       <c r="AP38" s="17"/>
@@ -2716,11 +2752,11 @@
       <c r="P39" s="33">
         <v>0</v>
       </c>
-      <c r="Q39" s="52" t="s">
+      <c r="Q39" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="R39" s="53"/>
-      <c r="S39" s="54"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="49"/>
       <c r="T39" s="33">
         <v>1</v>
       </c>
@@ -2730,40 +2766,40 @@
       <c r="V39" s="33">
         <v>0</v>
       </c>
-      <c r="Y39" s="72">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="72">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="72">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="72">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="55" t="s">
+      <c r="Y39" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="34">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="AD39" s="56"/>
-      <c r="AE39" s="56"/>
-      <c r="AG39" s="76">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="76">
-        <v>1</v>
-      </c>
-      <c r="AI39" s="76">
-        <v>1</v>
-      </c>
-      <c r="AJ39" s="76">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="42" t="s">
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="59"/>
+      <c r="AG39" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="38">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
+      <c r="AL39" s="60"/>
+      <c r="AM39" s="60"/>
       <c r="AN39" s="8"/>
       <c r="AO39" s="17"/>
       <c r="AP39" s="17"/>
@@ -2779,11 +2815,11 @@
       <c r="P40" s="33">
         <v>1</v>
       </c>
-      <c r="Q40" s="52" t="s">
+      <c r="Q40" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="R40" s="53"/>
-      <c r="S40" s="54"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="49"/>
       <c r="T40" s="33">
         <v>1</v>
       </c>
@@ -2793,344 +2829,344 @@
       <c r="V40" s="33">
         <v>1</v>
       </c>
-      <c r="Y40" s="72">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="72">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="72">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="72">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="55" t="s">
+      <c r="Y40" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="34">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="AD40" s="56"/>
-      <c r="AE40" s="56"/>
-      <c r="AG40" s="76">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="76">
-        <v>1</v>
-      </c>
-      <c r="AI40" s="76">
-        <v>1</v>
-      </c>
-      <c r="AJ40" s="76">
-        <v>1</v>
-      </c>
-      <c r="AK40" s="42" t="s">
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59"/>
+      <c r="AG40" s="38">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="38">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AL40" s="44"/>
-      <c r="AM40" s="44"/>
+      <c r="AL40" s="60"/>
+      <c r="AM40" s="60"/>
       <c r="AN40" s="8"/>
       <c r="AO40" s="17"/>
       <c r="AP40" s="17"/>
       <c r="AQ40" s="17"/>
     </row>
     <row r="41" spans="14:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y41" s="72">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="72">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="72">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="72">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="63"/>
-      <c r="AD41" s="64"/>
-      <c r="AE41" s="64"/>
-      <c r="AG41" s="76">
-        <v>1</v>
-      </c>
-      <c r="AH41" s="76">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="76">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="76">
-        <v>0</v>
-      </c>
-      <c r="AK41" s="63"/>
-      <c r="AL41" s="64"/>
-      <c r="AM41" s="64"/>
+      <c r="Y41" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="61"/>
+      <c r="AD41" s="62"/>
+      <c r="AE41" s="62"/>
+      <c r="AG41" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="61"/>
+      <c r="AL41" s="62"/>
+      <c r="AM41" s="62"/>
       <c r="AN41" s="8"/>
       <c r="AO41" s="17"/>
       <c r="AP41" s="17"/>
       <c r="AQ41" s="17"/>
     </row>
     <row r="42" spans="14:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y42" s="72">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="72">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="72">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="72">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="63"/>
-      <c r="AD42" s="64"/>
-      <c r="AE42" s="64"/>
-      <c r="AG42" s="76">
-        <v>1</v>
-      </c>
-      <c r="AH42" s="76">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="76">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="76">
-        <v>1</v>
-      </c>
-      <c r="AK42" s="55" t="s">
+      <c r="Y42" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="62"/>
+      <c r="AE42" s="62"/>
+      <c r="AG42" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="AL42" s="56"/>
-      <c r="AM42" s="56"/>
+      <c r="AL42" s="59"/>
+      <c r="AM42" s="59"/>
       <c r="AN42" s="8"/>
       <c r="AO42" s="17"/>
       <c r="AP42" s="17"/>
       <c r="AQ42" s="17"/>
     </row>
     <row r="43" spans="14:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y43" s="72">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="72">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="72">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="72">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="55" t="s">
+      <c r="Y43" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="34">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AD43" s="56"/>
-      <c r="AE43" s="56"/>
-      <c r="AG43" s="76">
-        <v>1</v>
-      </c>
-      <c r="AH43" s="76">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="76">
-        <v>1</v>
-      </c>
-      <c r="AJ43" s="76">
-        <v>0</v>
-      </c>
-      <c r="AK43" s="55" t="s">
+      <c r="AD43" s="59"/>
+      <c r="AE43" s="59"/>
+      <c r="AG43" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="38">
+        <v>1</v>
+      </c>
+      <c r="AJ43" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="AL43" s="56"/>
-      <c r="AM43" s="56"/>
+      <c r="AL43" s="59"/>
+      <c r="AM43" s="59"/>
       <c r="AN43" s="8"/>
       <c r="AO43" s="17"/>
       <c r="AP43" s="17"/>
       <c r="AQ43" s="17"/>
     </row>
     <row r="44" spans="14:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y44" s="72">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="72">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="72">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="72">
-        <v>1</v>
-      </c>
-      <c r="AC44" s="55" t="s">
+      <c r="Y44" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="34">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="AD44" s="56"/>
-      <c r="AE44" s="56"/>
-      <c r="AG44" s="76">
-        <v>1</v>
-      </c>
-      <c r="AH44" s="76">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="76">
-        <v>1</v>
-      </c>
-      <c r="AJ44" s="76">
-        <v>1</v>
-      </c>
-      <c r="AK44" s="55"/>
-      <c r="AL44" s="56"/>
-      <c r="AM44" s="56"/>
+      <c r="AD44" s="59"/>
+      <c r="AE44" s="59"/>
+      <c r="AG44" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="38">
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="58"/>
+      <c r="AL44" s="59"/>
+      <c r="AM44" s="59"/>
       <c r="AN44" s="8"/>
       <c r="AO44" s="17"/>
       <c r="AP44" s="17"/>
       <c r="AQ44" s="17"/>
     </row>
     <row r="45" spans="14:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y45" s="72">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="72">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="72">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="72">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="42" t="s">
+      <c r="Y45" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="AD45" s="44"/>
-      <c r="AE45" s="44"/>
-      <c r="AG45" s="76">
-        <v>1</v>
-      </c>
-      <c r="AH45" s="76">
-        <v>1</v>
-      </c>
-      <c r="AI45" s="76">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="76">
-        <v>0</v>
-      </c>
-      <c r="AK45" s="42"/>
-      <c r="AL45" s="44"/>
-      <c r="AM45" s="44"/>
+      <c r="AD45" s="60"/>
+      <c r="AE45" s="60"/>
+      <c r="AG45" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH45" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI45" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="56"/>
+      <c r="AL45" s="60"/>
+      <c r="AM45" s="60"/>
       <c r="AN45" s="8"/>
       <c r="AO45" s="17"/>
       <c r="AP45" s="17"/>
       <c r="AQ45" s="17"/>
     </row>
     <row r="46" spans="14:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y46" s="72">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="72">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="72">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="72">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="42" t="s">
+      <c r="Y46" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="AD46" s="44"/>
-      <c r="AE46" s="44"/>
-      <c r="AG46" s="76">
-        <v>1</v>
-      </c>
-      <c r="AH46" s="76">
-        <v>1</v>
-      </c>
-      <c r="AI46" s="76">
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="76">
-        <v>1</v>
-      </c>
-      <c r="AK46" s="42"/>
-      <c r="AL46" s="44"/>
-      <c r="AM46" s="44"/>
+      <c r="AD46" s="60"/>
+      <c r="AE46" s="60"/>
+      <c r="AG46" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI46" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK46" s="56"/>
+      <c r="AL46" s="60"/>
+      <c r="AM46" s="60"/>
       <c r="AN46" s="8"/>
       <c r="AO46" s="17"/>
       <c r="AP46" s="17"/>
       <c r="AQ46" s="17"/>
     </row>
     <row r="47" spans="14:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y47" s="72">
-        <v>1</v>
-      </c>
-      <c r="Z47" s="72">
-        <v>1</v>
-      </c>
-      <c r="AA47" s="72">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="72">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="42" t="s">
+      <c r="Y47" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="34">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="34">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="AD47" s="44"/>
-      <c r="AE47" s="44"/>
-      <c r="AG47" s="76">
-        <v>1</v>
-      </c>
-      <c r="AH47" s="76">
-        <v>1</v>
-      </c>
-      <c r="AI47" s="76">
-        <v>1</v>
-      </c>
-      <c r="AJ47" s="76">
-        <v>0</v>
-      </c>
-      <c r="AK47" s="42"/>
-      <c r="AL47" s="44"/>
-      <c r="AM47" s="44"/>
+      <c r="AD47" s="60"/>
+      <c r="AE47" s="60"/>
+      <c r="AG47" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI47" s="38">
+        <v>1</v>
+      </c>
+      <c r="AJ47" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="56"/>
+      <c r="AL47" s="60"/>
+      <c r="AM47" s="60"/>
       <c r="AN47" s="8"/>
       <c r="AO47" s="17"/>
       <c r="AP47" s="17"/>
       <c r="AQ47" s="17"/>
     </row>
     <row r="48" spans="14:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y48" s="72">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="72">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="72">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="72">
-        <v>1</v>
-      </c>
-      <c r="AC48" s="42" t="s">
+      <c r="Y48" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="34">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AD48" s="44"/>
-      <c r="AE48" s="44"/>
-      <c r="AG48" s="76">
-        <v>1</v>
-      </c>
-      <c r="AH48" s="76">
-        <v>1</v>
-      </c>
-      <c r="AI48" s="76">
-        <v>1</v>
-      </c>
-      <c r="AJ48" s="76">
-        <v>1</v>
-      </c>
-      <c r="AK48" s="42"/>
-      <c r="AL48" s="44"/>
-      <c r="AM48" s="44"/>
+      <c r="AD48" s="60"/>
+      <c r="AE48" s="60"/>
+      <c r="AG48" s="38">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI48" s="38">
+        <v>1</v>
+      </c>
+      <c r="AJ48" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK48" s="56"/>
+      <c r="AL48" s="60"/>
+      <c r="AM48" s="60"/>
       <c r="AN48" s="8"/>
       <c r="AO48" s="17"/>
       <c r="AP48" s="17"/>
@@ -3248,52 +3284,52 @@
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="80">
-        <v>1</v>
-      </c>
-      <c r="F52" s="80">
-        <v>0</v>
-      </c>
-      <c r="G52" s="46" t="s">
+      <c r="E52" s="39">
+        <v>1</v>
+      </c>
+      <c r="F52" s="39">
+        <v>0</v>
+      </c>
+      <c r="G52" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="48"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="74"/>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="50" t="s">
+      <c r="L52" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="50"/>
-      <c r="R52" s="50"/>
-      <c r="S52" s="50"/>
-      <c r="T52" s="50"/>
-      <c r="U52" s="50"/>
-      <c r="V52" s="50"/>
-      <c r="W52" s="50"/>
-      <c r="X52" s="50"/>
-      <c r="Y52" s="50"/>
-      <c r="Z52" s="50"/>
-      <c r="AA52" s="50"/>
-      <c r="AB52" s="50"/>
-      <c r="AC52" s="50"/>
-      <c r="AD52" s="50"/>
-      <c r="AE52" s="50"/>
-      <c r="AF52" s="50"/>
-      <c r="AG52" s="50"/>
-      <c r="AH52" s="50"/>
-      <c r="AI52" s="50"/>
-      <c r="AJ52" s="51"/>
-      <c r="AK52" s="42" t="s">
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="64"/>
+      <c r="Q52" s="64"/>
+      <c r="R52" s="64"/>
+      <c r="S52" s="64"/>
+      <c r="T52" s="64"/>
+      <c r="U52" s="64"/>
+      <c r="V52" s="64"/>
+      <c r="W52" s="64"/>
+      <c r="X52" s="64"/>
+      <c r="Y52" s="64"/>
+      <c r="Z52" s="64"/>
+      <c r="AA52" s="64"/>
+      <c r="AB52" s="64"/>
+      <c r="AC52" s="64"/>
+      <c r="AD52" s="64"/>
+      <c r="AE52" s="64"/>
+      <c r="AF52" s="64"/>
+      <c r="AG52" s="64"/>
+      <c r="AH52" s="64"/>
+      <c r="AI52" s="64"/>
+      <c r="AJ52" s="65"/>
+      <c r="AK52" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="AL52" s="44"/>
+      <c r="AL52" s="60"/>
     </row>
     <row r="53" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -3302,18 +3338,18 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="80">
-        <v>1</v>
-      </c>
-      <c r="F53" s="80">
-        <v>0</v>
-      </c>
-      <c r="G53" s="46" t="s">
+      <c r="E53" s="39">
+        <v>1</v>
+      </c>
+      <c r="F53" s="39">
+        <v>0</v>
+      </c>
+      <c r="G53" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="48"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="74"/>
       <c r="K53" s="3">
         <v>1</v>
       </c>
@@ -3333,31 +3369,31 @@
       <c r="Q53" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="R53" s="49" t="s">
+      <c r="R53" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="S53" s="50"/>
-      <c r="T53" s="50"/>
-      <c r="U53" s="50"/>
-      <c r="V53" s="50"/>
-      <c r="W53" s="50"/>
-      <c r="X53" s="50"/>
-      <c r="Y53" s="50"/>
-      <c r="Z53" s="50"/>
-      <c r="AA53" s="50"/>
-      <c r="AB53" s="50"/>
-      <c r="AC53" s="50"/>
-      <c r="AD53" s="50"/>
-      <c r="AE53" s="50"/>
-      <c r="AF53" s="50"/>
-      <c r="AG53" s="50"/>
-      <c r="AH53" s="50"/>
-      <c r="AI53" s="50"/>
-      <c r="AJ53" s="51"/>
-      <c r="AK53" s="42" t="s">
+      <c r="S53" s="64"/>
+      <c r="T53" s="64"/>
+      <c r="U53" s="64"/>
+      <c r="V53" s="64"/>
+      <c r="W53" s="64"/>
+      <c r="X53" s="64"/>
+      <c r="Y53" s="64"/>
+      <c r="Z53" s="64"/>
+      <c r="AA53" s="64"/>
+      <c r="AB53" s="64"/>
+      <c r="AC53" s="64"/>
+      <c r="AD53" s="64"/>
+      <c r="AE53" s="64"/>
+      <c r="AF53" s="64"/>
+      <c r="AG53" s="64"/>
+      <c r="AH53" s="64"/>
+      <c r="AI53" s="64"/>
+      <c r="AJ53" s="65"/>
+      <c r="AK53" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="AL53" s="44"/>
+      <c r="AL53" s="60"/>
     </row>
     <row r="54" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3366,16 +3402,16 @@
       </c>
       <c r="E55" s="16"/>
       <c r="F55" s="29"/>
-      <c r="G55" s="72">
-        <v>0</v>
-      </c>
-      <c r="H55" s="72">
-        <v>0</v>
-      </c>
-      <c r="I55" s="72">
-        <v>0</v>
-      </c>
-      <c r="J55" s="72">
+      <c r="G55" s="34">
+        <v>0</v>
+      </c>
+      <c r="H55" s="34">
+        <v>0</v>
+      </c>
+      <c r="I55" s="34">
+        <v>0</v>
+      </c>
+      <c r="J55" s="34">
         <v>0</v>
       </c>
       <c r="L55" s="14">
@@ -3410,16 +3446,16 @@
       </c>
       <c r="E56" s="16"/>
       <c r="F56" s="29"/>
-      <c r="G56" s="72">
-        <v>0</v>
-      </c>
-      <c r="H56" s="72">
-        <v>0</v>
-      </c>
-      <c r="I56" s="72">
-        <v>0</v>
-      </c>
-      <c r="J56" s="72">
+      <c r="G56" s="34">
+        <v>0</v>
+      </c>
+      <c r="H56" s="34">
+        <v>0</v>
+      </c>
+      <c r="I56" s="34">
+        <v>0</v>
+      </c>
+      <c r="J56" s="34">
         <v>1</v>
       </c>
       <c r="K56" s="12"/>
@@ -3455,16 +3491,16 @@
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="29"/>
-      <c r="G57" s="72">
-        <v>0</v>
-      </c>
-      <c r="H57" s="72">
-        <v>0</v>
-      </c>
-      <c r="I57" s="72">
-        <v>1</v>
-      </c>
-      <c r="J57" s="72">
+      <c r="G57" s="34">
+        <v>0</v>
+      </c>
+      <c r="H57" s="34">
+        <v>0</v>
+      </c>
+      <c r="I57" s="34">
+        <v>1</v>
+      </c>
+      <c r="J57" s="34">
         <v>0</v>
       </c>
       <c r="K57" s="12"/>
@@ -3500,16 +3536,16 @@
       </c>
       <c r="E58" s="16"/>
       <c r="F58" s="29"/>
-      <c r="G58" s="72">
-        <v>0</v>
-      </c>
-      <c r="H58" s="72">
-        <v>0</v>
-      </c>
-      <c r="I58" s="72">
-        <v>1</v>
-      </c>
-      <c r="J58" s="72">
+      <c r="G58" s="34">
+        <v>0</v>
+      </c>
+      <c r="H58" s="34">
+        <v>0</v>
+      </c>
+      <c r="I58" s="34">
+        <v>1</v>
+      </c>
+      <c r="J58" s="34">
         <v>1</v>
       </c>
       <c r="K58" s="12"/>
@@ -3545,16 +3581,16 @@
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="30"/>
-      <c r="G59" s="72">
-        <v>0</v>
-      </c>
-      <c r="H59" s="72">
-        <v>1</v>
-      </c>
-      <c r="I59" s="72">
-        <v>0</v>
-      </c>
-      <c r="J59" s="72">
+      <c r="G59" s="34">
+        <v>0</v>
+      </c>
+      <c r="H59" s="34">
+        <v>1</v>
+      </c>
+      <c r="I59" s="34">
+        <v>0</v>
+      </c>
+      <c r="J59" s="34">
         <v>0</v>
       </c>
       <c r="K59" s="12"/>
@@ -3590,16 +3626,16 @@
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="30"/>
-      <c r="G60" s="72">
-        <v>0</v>
-      </c>
-      <c r="H60" s="72">
-        <v>1</v>
-      </c>
-      <c r="I60" s="72">
-        <v>0</v>
-      </c>
-      <c r="J60" s="72">
+      <c r="G60" s="34">
+        <v>0</v>
+      </c>
+      <c r="H60" s="34">
+        <v>1</v>
+      </c>
+      <c r="I60" s="34">
+        <v>0</v>
+      </c>
+      <c r="J60" s="34">
         <v>1</v>
       </c>
       <c r="K60" s="26"/>
@@ -3635,16 +3671,16 @@
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="30"/>
-      <c r="G61" s="72">
-        <v>0</v>
-      </c>
-      <c r="H61" s="72">
-        <v>1</v>
-      </c>
-      <c r="I61" s="72">
-        <v>1</v>
-      </c>
-      <c r="J61" s="72">
+      <c r="G61" s="34">
+        <v>0</v>
+      </c>
+      <c r="H61" s="34">
+        <v>1</v>
+      </c>
+      <c r="I61" s="34">
+        <v>1</v>
+      </c>
+      <c r="J61" s="34">
         <v>0</v>
       </c>
       <c r="K61" s="26"/>
@@ -3680,16 +3716,16 @@
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="30"/>
-      <c r="G62" s="72">
-        <v>0</v>
-      </c>
-      <c r="H62" s="72">
-        <v>1</v>
-      </c>
-      <c r="I62" s="72">
-        <v>1</v>
-      </c>
-      <c r="J62" s="72">
+      <c r="G62" s="34">
+        <v>0</v>
+      </c>
+      <c r="H62" s="34">
+        <v>1</v>
+      </c>
+      <c r="I62" s="34">
+        <v>1</v>
+      </c>
+      <c r="J62" s="34">
         <v>1</v>
       </c>
       <c r="K62" s="26"/>
@@ -3723,16 +3759,16 @@
       <c r="D63" s="28"/>
       <c r="E63" s="28"/>
       <c r="F63" s="31"/>
-      <c r="G63" s="72">
-        <v>1</v>
-      </c>
-      <c r="H63" s="72">
-        <v>0</v>
-      </c>
-      <c r="I63" s="72">
-        <v>0</v>
-      </c>
-      <c r="J63" s="72">
+      <c r="G63" s="34">
+        <v>1</v>
+      </c>
+      <c r="H63" s="34">
+        <v>0</v>
+      </c>
+      <c r="I63" s="34">
+        <v>0</v>
+      </c>
+      <c r="J63" s="34">
         <v>0</v>
       </c>
       <c r="K63" s="26"/>
@@ -3766,16 +3802,16 @@
       <c r="D64" s="28"/>
       <c r="E64" s="28"/>
       <c r="F64" s="31"/>
-      <c r="G64" s="72">
-        <v>1</v>
-      </c>
-      <c r="H64" s="72">
-        <v>0</v>
-      </c>
-      <c r="I64" s="72">
-        <v>0</v>
-      </c>
-      <c r="J64" s="72">
+      <c r="G64" s="34">
+        <v>1</v>
+      </c>
+      <c r="H64" s="34">
+        <v>0</v>
+      </c>
+      <c r="I64" s="34">
+        <v>0</v>
+      </c>
+      <c r="J64" s="34">
         <v>1</v>
       </c>
       <c r="K64" s="27"/>
@@ -3797,10 +3833,10 @@
       <c r="Q64" s="14">
         <v>0</v>
       </c>
-      <c r="R64" s="40" t="s">
+      <c r="R64" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="S64" s="45"/>
+      <c r="S64" s="55"/>
     </row>
     <row r="65" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
@@ -3811,16 +3847,16 @@
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="30"/>
-      <c r="G65" s="72">
-        <v>1</v>
-      </c>
-      <c r="H65" s="72">
-        <v>0</v>
-      </c>
-      <c r="I65" s="72">
-        <v>1</v>
-      </c>
-      <c r="J65" s="72">
+      <c r="G65" s="34">
+        <v>1</v>
+      </c>
+      <c r="H65" s="34">
+        <v>0</v>
+      </c>
+      <c r="I65" s="34">
+        <v>1</v>
+      </c>
+      <c r="J65" s="34">
         <v>0</v>
       </c>
       <c r="K65" s="27"/>
@@ -3832,16 +3868,16 @@
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
       <c r="F66" s="30"/>
-      <c r="G66" s="72">
-        <v>1</v>
-      </c>
-      <c r="H66" s="72">
-        <v>0</v>
-      </c>
-      <c r="I66" s="72">
-        <v>1</v>
-      </c>
-      <c r="J66" s="72">
+      <c r="G66" s="34">
+        <v>1</v>
+      </c>
+      <c r="H66" s="34">
+        <v>0</v>
+      </c>
+      <c r="I66" s="34">
+        <v>1</v>
+      </c>
+      <c r="J66" s="34">
         <v>1</v>
       </c>
       <c r="K66" s="26"/>
@@ -3857,16 +3893,16 @@
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="29"/>
-      <c r="G67" s="72">
-        <v>1</v>
-      </c>
-      <c r="H67" s="72">
-        <v>1</v>
-      </c>
-      <c r="I67" s="72">
-        <v>0</v>
-      </c>
-      <c r="J67" s="72">
+      <c r="G67" s="34">
+        <v>1</v>
+      </c>
+      <c r="H67" s="34">
+        <v>1</v>
+      </c>
+      <c r="I67" s="34">
+        <v>0</v>
+      </c>
+      <c r="J67" s="34">
         <v>0</v>
       </c>
       <c r="K67" s="26"/>
@@ -3880,16 +3916,16 @@
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="29"/>
-      <c r="G68" s="72">
-        <v>1</v>
-      </c>
-      <c r="H68" s="72">
-        <v>1</v>
-      </c>
-      <c r="I68" s="72">
-        <v>0</v>
-      </c>
-      <c r="J68" s="72">
+      <c r="G68" s="34">
+        <v>1</v>
+      </c>
+      <c r="H68" s="34">
+        <v>1</v>
+      </c>
+      <c r="I68" s="34">
+        <v>0</v>
+      </c>
+      <c r="J68" s="34">
         <v>1</v>
       </c>
       <c r="K68" s="12"/>
@@ -3903,16 +3939,16 @@
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="29"/>
-      <c r="G69" s="72">
-        <v>1</v>
-      </c>
-      <c r="H69" s="72">
-        <v>1</v>
-      </c>
-      <c r="I69" s="72">
-        <v>1</v>
-      </c>
-      <c r="J69" s="72">
+      <c r="G69" s="34">
+        <v>1</v>
+      </c>
+      <c r="H69" s="34">
+        <v>1</v>
+      </c>
+      <c r="I69" s="34">
+        <v>1</v>
+      </c>
+      <c r="J69" s="34">
         <v>0</v>
       </c>
       <c r="K69" s="12"/>
@@ -3923,19 +3959,19 @@
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="68"/>
-      <c r="G70" s="72">
-        <v>1</v>
-      </c>
-      <c r="H70" s="72">
-        <v>1</v>
-      </c>
-      <c r="I70" s="72">
-        <v>1</v>
-      </c>
-      <c r="J70" s="72">
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="34">
+        <v>1</v>
+      </c>
+      <c r="H70" s="34">
+        <v>1</v>
+      </c>
+      <c r="I70" s="34">
+        <v>1</v>
+      </c>
+      <c r="J70" s="34">
         <v>1</v>
       </c>
       <c r="K70" s="12"/>
@@ -4050,22 +4086,22 @@
       </c>
     </row>
     <row r="74" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="65" t="s">
+      <c r="A74" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="80">
-        <v>1</v>
-      </c>
-      <c r="F74" s="80">
-        <v>1</v>
-      </c>
-      <c r="G74" s="80">
-        <v>0</v>
-      </c>
-      <c r="H74" s="80">
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="39">
+        <v>1</v>
+      </c>
+      <c r="F74" s="39">
+        <v>1</v>
+      </c>
+      <c r="G74" s="39">
+        <v>0</v>
+      </c>
+      <c r="H74" s="39">
         <v>0</v>
       </c>
       <c r="I74" s="3"/>
@@ -4078,11 +4114,11 @@
       <c r="P74" s="9"/>
       <c r="Q74" s="9"/>
       <c r="R74" s="9"/>
-      <c r="S74" s="69" t="s">
+      <c r="S74" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="T74" s="70"/>
-      <c r="U74" s="71"/>
+      <c r="T74" s="53"/>
+      <c r="U74" s="54"/>
       <c r="V74" s="20" t="s">
         <v>87</v>
       </c>
@@ -4093,41 +4129,41 @@
         <v>86</v>
       </c>
       <c r="Y74" s="9"/>
-      <c r="Z74" s="59" t="s">
+      <c r="Z74" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="AA74" s="59"/>
-      <c r="AB74" s="59"/>
-      <c r="AC74" s="49" t="s">
+      <c r="AA74" s="71"/>
+      <c r="AB74" s="71"/>
+      <c r="AC74" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="AD74" s="50"/>
-      <c r="AE74" s="50"/>
-      <c r="AF74" s="50"/>
-      <c r="AG74" s="50"/>
-      <c r="AH74" s="50"/>
-      <c r="AI74" s="50"/>
-      <c r="AJ74" s="51"/>
-      <c r="AK74" s="42"/>
-      <c r="AL74" s="44"/>
+      <c r="AD74" s="64"/>
+      <c r="AE74" s="64"/>
+      <c r="AF74" s="64"/>
+      <c r="AG74" s="64"/>
+      <c r="AH74" s="64"/>
+      <c r="AI74" s="64"/>
+      <c r="AJ74" s="65"/>
+      <c r="AK74" s="56"/>
+      <c r="AL74" s="60"/>
     </row>
     <row r="75" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="65" t="s">
+      <c r="A75" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="80">
-        <v>1</v>
-      </c>
-      <c r="F75" s="80">
-        <v>1</v>
-      </c>
-      <c r="G75" s="80">
-        <v>0</v>
-      </c>
-      <c r="H75" s="80">
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="39">
+        <v>1</v>
+      </c>
+      <c r="F75" s="39">
+        <v>1</v>
+      </c>
+      <c r="G75" s="39">
+        <v>0</v>
+      </c>
+      <c r="H75" s="39">
         <v>0</v>
       </c>
       <c r="I75" s="3"/>
@@ -4140,11 +4176,11 @@
       <c r="P75" s="9"/>
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
-      <c r="S75" s="69" t="s">
+      <c r="S75" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="T75" s="70"/>
-      <c r="U75" s="71"/>
+      <c r="T75" s="53"/>
+      <c r="U75" s="54"/>
       <c r="V75" s="20" t="s">
         <v>87</v>
       </c>
@@ -4155,35 +4191,35 @@
         <v>86</v>
       </c>
       <c r="Y75" s="9"/>
-      <c r="Z75" s="59" t="s">
+      <c r="Z75" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="AA75" s="59"/>
-      <c r="AB75" s="59"/>
+      <c r="AA75" s="71"/>
+      <c r="AB75" s="71"/>
       <c r="AC75" s="19"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="4"/>
-      <c r="AH75" s="60" t="s">
+      <c r="AH75" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="AI75" s="61"/>
-      <c r="AJ75" s="62"/>
-      <c r="AK75" s="42"/>
-      <c r="AL75" s="44"/>
+      <c r="AI75" s="67"/>
+      <c r="AJ75" s="68"/>
+      <c r="AK75" s="56"/>
+      <c r="AL75" s="60"/>
     </row>
     <row r="76" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
-      <c r="S77" s="73">
-        <v>0</v>
-      </c>
-      <c r="T77" s="73">
-        <v>0</v>
-      </c>
-      <c r="U77" s="73">
+      <c r="S77" s="35">
+        <v>0</v>
+      </c>
+      <c r="T77" s="35">
+        <v>0</v>
+      </c>
+      <c r="U77" s="35">
         <v>0</v>
       </c>
       <c r="V77" s="22" t="s">
@@ -4198,35 +4234,35 @@
       <c r="AB77" s="33">
         <v>0</v>
       </c>
-      <c r="AC77" s="42" t="s">
+      <c r="AC77" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="AD77" s="44"/>
-      <c r="AE77" s="44"/>
-      <c r="AH77" s="76">
-        <v>0</v>
-      </c>
-      <c r="AI77" s="76">
-        <v>0</v>
-      </c>
-      <c r="AJ77" s="76">
-        <v>0</v>
-      </c>
-      <c r="AK77" s="42" t="s">
+      <c r="AD77" s="60"/>
+      <c r="AE77" s="60"/>
+      <c r="AH77" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI77" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ77" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK77" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="AL77" s="44"/>
-      <c r="AM77" s="44"/>
+      <c r="AL77" s="60"/>
+      <c r="AM77" s="60"/>
     </row>
     <row r="78" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I78" s="16"/>
-      <c r="S78" s="73">
-        <v>0</v>
-      </c>
-      <c r="T78" s="73">
-        <v>0</v>
-      </c>
-      <c r="U78" s="73">
+      <c r="S78" s="35">
+        <v>0</v>
+      </c>
+      <c r="T78" s="35">
+        <v>0</v>
+      </c>
+      <c r="U78" s="35">
         <v>1</v>
       </c>
       <c r="V78" s="22" t="s">
@@ -4241,35 +4277,35 @@
       <c r="AB78" s="33">
         <v>1</v>
       </c>
-      <c r="AC78" s="42" t="s">
+      <c r="AC78" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="AD78" s="44"/>
-      <c r="AE78" s="44"/>
-      <c r="AH78" s="76">
-        <v>0</v>
-      </c>
-      <c r="AI78" s="76">
-        <v>0</v>
-      </c>
-      <c r="AJ78" s="76">
-        <v>1</v>
-      </c>
-      <c r="AK78" s="42" t="s">
+      <c r="AD78" s="60"/>
+      <c r="AE78" s="60"/>
+      <c r="AH78" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI78" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ78" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK78" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="AL78" s="44"/>
-      <c r="AM78" s="44"/>
+      <c r="AL78" s="60"/>
+      <c r="AM78" s="60"/>
     </row>
     <row r="79" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I79" s="16"/>
-      <c r="S79" s="73">
-        <v>0</v>
-      </c>
-      <c r="T79" s="73">
-        <v>1</v>
-      </c>
-      <c r="U79" s="73">
+      <c r="S79" s="35">
+        <v>0</v>
+      </c>
+      <c r="T79" s="35">
+        <v>1</v>
+      </c>
+      <c r="U79" s="35">
         <v>0</v>
       </c>
       <c r="V79" s="22" t="s">
@@ -4284,35 +4320,35 @@
       <c r="AB79" s="33">
         <v>0</v>
       </c>
-      <c r="AC79" s="42" t="s">
+      <c r="AC79" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="AD79" s="44"/>
-      <c r="AE79" s="44"/>
-      <c r="AH79" s="76">
-        <v>0</v>
-      </c>
-      <c r="AI79" s="76">
-        <v>1</v>
-      </c>
-      <c r="AJ79" s="76">
-        <v>0</v>
-      </c>
-      <c r="AK79" s="42" t="s">
+      <c r="AD79" s="60"/>
+      <c r="AE79" s="60"/>
+      <c r="AH79" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI79" s="38">
+        <v>1</v>
+      </c>
+      <c r="AJ79" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK79" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="AL79" s="44"/>
-      <c r="AM79" s="44"/>
+      <c r="AL79" s="60"/>
+      <c r="AM79" s="60"/>
     </row>
     <row r="80" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I80" s="16"/>
-      <c r="S80" s="73">
-        <v>0</v>
-      </c>
-      <c r="T80" s="73">
-        <v>1</v>
-      </c>
-      <c r="U80" s="73">
+      <c r="S80" s="35">
+        <v>0</v>
+      </c>
+      <c r="T80" s="35">
+        <v>1</v>
+      </c>
+      <c r="U80" s="35">
         <v>1</v>
       </c>
       <c r="V80" s="22" t="s">
@@ -4327,36 +4363,36 @@
       <c r="AB80" s="33">
         <v>1</v>
       </c>
-      <c r="AC80" s="42" t="s">
+      <c r="AC80" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="AD80" s="44"/>
-      <c r="AE80" s="44"/>
-      <c r="AH80" s="76">
-        <v>0</v>
-      </c>
-      <c r="AI80" s="76">
-        <v>1</v>
-      </c>
-      <c r="AJ80" s="76">
-        <v>1</v>
-      </c>
-      <c r="AK80" s="42" t="s">
+      <c r="AD80" s="60"/>
+      <c r="AE80" s="60"/>
+      <c r="AH80" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI80" s="38">
+        <v>1</v>
+      </c>
+      <c r="AJ80" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK80" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="AL80" s="44"/>
-      <c r="AM80" s="44"/>
+      <c r="AL80" s="60"/>
+      <c r="AM80" s="60"/>
     </row>
     <row r="81" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I81" s="16"/>
       <c r="J81" s="16"/>
-      <c r="S81" s="73">
-        <v>1</v>
-      </c>
-      <c r="T81" s="73">
-        <v>0</v>
-      </c>
-      <c r="U81" s="73">
+      <c r="S81" s="35">
+        <v>1</v>
+      </c>
+      <c r="T81" s="35">
+        <v>0</v>
+      </c>
+      <c r="U81" s="35">
         <v>0</v>
       </c>
       <c r="V81" s="22" t="s">
@@ -4371,36 +4407,36 @@
       <c r="AB81" s="33">
         <v>0</v>
       </c>
-      <c r="AC81" s="42" t="s">
+      <c r="AC81" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="AD81" s="44"/>
-      <c r="AE81" s="44"/>
-      <c r="AH81" s="76">
-        <v>1</v>
-      </c>
-      <c r="AI81" s="76">
-        <v>0</v>
-      </c>
-      <c r="AJ81" s="76">
-        <v>0</v>
-      </c>
-      <c r="AK81" s="42" t="s">
+      <c r="AD81" s="60"/>
+      <c r="AE81" s="60"/>
+      <c r="AH81" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI81" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ81" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK81" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="AL81" s="44"/>
-      <c r="AM81" s="44"/>
+      <c r="AL81" s="60"/>
+      <c r="AM81" s="60"/>
     </row>
     <row r="82" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I82" s="16"/>
       <c r="J82" s="16"/>
-      <c r="S82" s="73">
-        <v>1</v>
-      </c>
-      <c r="T82" s="73">
-        <v>0</v>
-      </c>
-      <c r="U82" s="73">
+      <c r="S82" s="35">
+        <v>1</v>
+      </c>
+      <c r="T82" s="35">
+        <v>0</v>
+      </c>
+      <c r="U82" s="35">
         <v>1</v>
       </c>
       <c r="V82" s="22" t="s">
@@ -4409,31 +4445,31 @@
       <c r="Z82" s="8"/>
       <c r="AA82" s="8"/>
       <c r="AB82" s="8"/>
-      <c r="AH82" s="76">
-        <v>1</v>
-      </c>
-      <c r="AI82" s="76">
-        <v>0</v>
-      </c>
-      <c r="AJ82" s="76">
-        <v>1</v>
-      </c>
-      <c r="AK82" s="42" t="s">
+      <c r="AH82" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI82" s="38">
+        <v>0</v>
+      </c>
+      <c r="AJ82" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK82" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="AL82" s="44"/>
-      <c r="AM82" s="44"/>
+      <c r="AL82" s="60"/>
+      <c r="AM82" s="60"/>
     </row>
     <row r="83" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I83" s="16"/>
       <c r="J83" s="16"/>
-      <c r="S83" s="73">
-        <v>1</v>
-      </c>
-      <c r="T83" s="73">
-        <v>1</v>
-      </c>
-      <c r="U83" s="73">
+      <c r="S83" s="35">
+        <v>1</v>
+      </c>
+      <c r="T83" s="35">
+        <v>1</v>
+      </c>
+      <c r="U83" s="35">
         <v>0</v>
       </c>
       <c r="V83" s="22" t="s">
@@ -4442,31 +4478,31 @@
       <c r="Z83" s="8"/>
       <c r="AA83" s="8"/>
       <c r="AB83" s="8"/>
-      <c r="AH83" s="76">
-        <v>1</v>
-      </c>
-      <c r="AI83" s="76">
-        <v>1</v>
-      </c>
-      <c r="AJ83" s="76">
-        <v>0</v>
-      </c>
-      <c r="AK83" s="42" t="s">
+      <c r="AH83" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI83" s="38">
+        <v>1</v>
+      </c>
+      <c r="AJ83" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK83" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="AL83" s="44"/>
-      <c r="AM83" s="44"/>
+      <c r="AL83" s="60"/>
+      <c r="AM83" s="60"/>
     </row>
     <row r="84" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I84" s="16"/>
       <c r="J84" s="16"/>
-      <c r="S84" s="73">
-        <v>1</v>
-      </c>
-      <c r="T84" s="73">
-        <v>1</v>
-      </c>
-      <c r="U84" s="73">
+      <c r="S84" s="35">
+        <v>1</v>
+      </c>
+      <c r="T84" s="35">
+        <v>1</v>
+      </c>
+      <c r="U84" s="35">
         <v>1</v>
       </c>
       <c r="V84" s="22" t="s">
@@ -4475,49 +4511,49 @@
       <c r="X84" s="8"/>
       <c r="AA84" s="8"/>
       <c r="AB84" s="8"/>
-      <c r="AH84" s="76">
-        <v>1</v>
-      </c>
-      <c r="AI84" s="76">
-        <v>1</v>
-      </c>
-      <c r="AJ84" s="76">
-        <v>1</v>
-      </c>
-      <c r="AK84" s="42" t="s">
+      <c r="AH84" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI84" s="38">
+        <v>1</v>
+      </c>
+      <c r="AJ84" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK84" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AL84" s="44"/>
-      <c r="AM84" s="44"/>
+      <c r="AL84" s="60"/>
+      <c r="AM84" s="60"/>
     </row>
     <row r="85" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S86" s="18"/>
-      <c r="V86" s="74">
-        <v>0</v>
-      </c>
-      <c r="X86" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y86" s="57" t="s">
+      <c r="V86" s="36">
+        <v>0</v>
+      </c>
+      <c r="X86" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="Z86" s="58"/>
+      <c r="Z86" s="70"/>
     </row>
     <row r="87" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U87" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="V87" s="74">
-        <v>1</v>
-      </c>
-      <c r="X87" s="75">
-        <v>1</v>
-      </c>
-      <c r="Y87" s="38" t="s">
+      <c r="V87" s="36">
+        <v>1</v>
+      </c>
+      <c r="X87" s="37">
+        <v>1</v>
+      </c>
+      <c r="Y87" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="Z87" s="39"/>
+      <c r="Z87" s="83"/>
     </row>
     <row r="88" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4620,22 +4656,22 @@
       </c>
     </row>
     <row r="91" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="65" t="s">
+      <c r="A91" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="B91" s="65"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="80">
-        <v>1</v>
-      </c>
-      <c r="F91" s="80">
-        <v>1</v>
-      </c>
-      <c r="G91" s="80">
-        <v>0</v>
-      </c>
-      <c r="H91" s="80">
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="39">
+        <v>1</v>
+      </c>
+      <c r="F91" s="39">
+        <v>1</v>
+      </c>
+      <c r="G91" s="39">
+        <v>0</v>
+      </c>
+      <c r="H91" s="39">
         <v>1</v>
       </c>
       <c r="I91" s="3"/>
@@ -4672,34 +4708,34 @@
       <c r="Z91" s="19"/>
       <c r="AA91" s="19"/>
       <c r="AB91" s="19"/>
-      <c r="AC91" s="49" t="s">
+      <c r="AC91" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="AD91" s="50"/>
-      <c r="AE91" s="50"/>
-      <c r="AF91" s="50"/>
-      <c r="AG91" s="50"/>
-      <c r="AH91" s="50"/>
-      <c r="AI91" s="50"/>
-      <c r="AJ91" s="51"/>
+      <c r="AD91" s="64"/>
+      <c r="AE91" s="64"/>
+      <c r="AF91" s="64"/>
+      <c r="AG91" s="64"/>
+      <c r="AH91" s="64"/>
+      <c r="AI91" s="64"/>
+      <c r="AJ91" s="65"/>
     </row>
     <row r="92" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="65" t="s">
+      <c r="A92" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="80">
-        <v>1</v>
-      </c>
-      <c r="F92" s="80">
-        <v>1</v>
-      </c>
-      <c r="G92" s="80">
-        <v>0</v>
-      </c>
-      <c r="H92" s="80">
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="39">
+        <v>1</v>
+      </c>
+      <c r="F92" s="39">
+        <v>1</v>
+      </c>
+      <c r="G92" s="39">
+        <v>0</v>
+      </c>
+      <c r="H92" s="39">
         <v>1</v>
       </c>
       <c r="I92" s="3"/>
@@ -4734,16 +4770,16 @@
       <c r="Z92" s="19"/>
       <c r="AA92" s="19"/>
       <c r="AB92" s="19"/>
-      <c r="AC92" s="49" t="s">
+      <c r="AC92" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="AD92" s="50"/>
-      <c r="AE92" s="50"/>
-      <c r="AF92" s="50"/>
-      <c r="AG92" s="50"/>
-      <c r="AH92" s="50"/>
-      <c r="AI92" s="50"/>
-      <c r="AJ92" s="51"/>
+      <c r="AD92" s="64"/>
+      <c r="AE92" s="64"/>
+      <c r="AF92" s="64"/>
+      <c r="AG92" s="64"/>
+      <c r="AH92" s="64"/>
+      <c r="AI92" s="64"/>
+      <c r="AJ92" s="65"/>
     </row>
     <row r="93" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4765,10 +4801,10 @@
       <c r="Q94" s="14">
         <v>1</v>
       </c>
-      <c r="R94" s="40" t="s">
+      <c r="R94" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="S94" s="45"/>
+      <c r="S94" s="55"/>
     </row>
     <row r="95" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L95" s="14">
@@ -4789,10 +4825,10 @@
       <c r="Q95" s="14">
         <v>0</v>
       </c>
-      <c r="R95" s="40" t="s">
+      <c r="R95" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="S95" s="45"/>
+      <c r="S95" s="55"/>
     </row>
     <row r="96" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L96" s="14">
@@ -4813,10 +4849,10 @@
       <c r="Q96" s="14">
         <v>1</v>
       </c>
-      <c r="R96" s="40" t="s">
+      <c r="R96" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="S96" s="45"/>
+      <c r="S96" s="55"/>
     </row>
     <row r="97" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L97" s="14">
@@ -4837,10 +4873,10 @@
       <c r="Q97" s="14">
         <v>0</v>
       </c>
-      <c r="R97" s="40" t="s">
+      <c r="R97" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="S97" s="45"/>
+      <c r="S97" s="55"/>
     </row>
     <row r="98" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L98" s="14">
@@ -4861,10 +4897,10 @@
       <c r="Q98" s="14">
         <v>0</v>
       </c>
-      <c r="R98" s="40" t="s">
+      <c r="R98" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="S98" s="45"/>
+      <c r="S98" s="55"/>
     </row>
     <row r="99" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L99" s="14">
@@ -4885,10 +4921,10 @@
       <c r="Q99" s="14">
         <v>1</v>
       </c>
-      <c r="R99" s="40" t="s">
+      <c r="R99" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="S99" s="45"/>
+      <c r="S99" s="55"/>
     </row>
     <row r="100" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L100" s="14">
@@ -4909,10 +4945,10 @@
       <c r="Q100" s="14">
         <v>0</v>
       </c>
-      <c r="R100" s="40" t="s">
+      <c r="R100" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="S100" s="45"/>
+      <c r="S100" s="55"/>
     </row>
     <row r="101" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L101" s="14">
@@ -4933,10 +4969,10 @@
       <c r="Q101" s="14">
         <v>1</v>
       </c>
-      <c r="R101" s="40" t="s">
+      <c r="R101" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="S101" s="45"/>
+      <c r="S101" s="55"/>
     </row>
     <row r="102" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L102" s="14">
@@ -4957,10 +4993,10 @@
       <c r="Q102" s="14">
         <v>0</v>
       </c>
-      <c r="R102" s="40" t="s">
+      <c r="R102" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="S102" s="45"/>
+      <c r="S102" s="55"/>
     </row>
     <row r="103" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L103" s="14">
@@ -4981,10 +5017,10 @@
       <c r="Q103" s="14">
         <v>0</v>
       </c>
-      <c r="R103" s="40" t="s">
+      <c r="R103" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="S103" s="45"/>
+      <c r="S103" s="55"/>
     </row>
     <row r="104" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5087,22 +5123,22 @@
       </c>
     </row>
     <row r="107" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="40" t="s">
+      <c r="A107" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="B107" s="40"/>
-      <c r="C107" s="40"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="80">
-        <v>1</v>
-      </c>
-      <c r="F107" s="80">
-        <v>1</v>
-      </c>
-      <c r="G107" s="80">
-        <v>1</v>
-      </c>
-      <c r="H107" s="80">
+      <c r="B107" s="45"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="39">
+        <v>1</v>
+      </c>
+      <c r="F107" s="39">
+        <v>1</v>
+      </c>
+      <c r="G107" s="39">
+        <v>1</v>
+      </c>
+      <c r="H107" s="39">
         <v>0</v>
       </c>
       <c r="I107" s="3">
@@ -5135,29 +5171,29 @@
       <c r="AH107" s="19"/>
       <c r="AI107" s="19"/>
       <c r="AJ107" s="19"/>
-      <c r="AK107" s="42" t="s">
+      <c r="AK107" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="AL107" s="43"/>
-      <c r="AM107" s="43"/>
+      <c r="AL107" s="57"/>
+      <c r="AM107" s="57"/>
     </row>
     <row r="108" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="40" t="s">
+      <c r="A108" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="B108" s="40"/>
-      <c r="C108" s="40"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="80">
-        <v>1</v>
-      </c>
-      <c r="F108" s="80">
-        <v>1</v>
-      </c>
-      <c r="G108" s="80">
-        <v>1</v>
-      </c>
-      <c r="H108" s="80">
+      <c r="B108" s="45"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="39">
+        <v>1</v>
+      </c>
+      <c r="F108" s="39">
+        <v>1</v>
+      </c>
+      <c r="G108" s="39">
+        <v>1</v>
+      </c>
+      <c r="H108" s="39">
         <v>0</v>
       </c>
       <c r="I108" s="3">
@@ -5190,11 +5226,11 @@
       <c r="AH108" s="19"/>
       <c r="AI108" s="19"/>
       <c r="AJ108" s="19"/>
-      <c r="AK108" s="42" t="s">
+      <c r="AK108" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="AL108" s="43"/>
-      <c r="AM108" s="43"/>
+      <c r="AL108" s="57"/>
+      <c r="AM108" s="57"/>
     </row>
     <row r="109" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="110" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5296,22 +5332,22 @@
       </c>
     </row>
     <row r="111" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="40" t="s">
+      <c r="A111" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="40"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="80">
-        <v>1</v>
-      </c>
-      <c r="F111" s="80">
-        <v>1</v>
-      </c>
-      <c r="G111" s="80">
-        <v>1</v>
-      </c>
-      <c r="H111" s="80">
+      <c r="B111" s="45"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="39">
+        <v>1</v>
+      </c>
+      <c r="F111" s="39">
+        <v>1</v>
+      </c>
+      <c r="G111" s="39">
+        <v>1</v>
+      </c>
+      <c r="H111" s="39">
         <v>1</v>
       </c>
       <c r="I111" s="3">
@@ -5344,29 +5380,29 @@
       <c r="AH111" s="19"/>
       <c r="AI111" s="19"/>
       <c r="AJ111" s="19"/>
-      <c r="AK111" s="42" t="s">
+      <c r="AK111" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="AL111" s="44"/>
-      <c r="AM111" s="44"/>
+      <c r="AL111" s="60"/>
+      <c r="AM111" s="60"/>
     </row>
     <row r="112" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="40" t="s">
+      <c r="A112" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="40"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="80">
-        <v>1</v>
-      </c>
-      <c r="F112" s="80">
-        <v>1</v>
-      </c>
-      <c r="G112" s="80">
-        <v>1</v>
-      </c>
-      <c r="H112" s="80">
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="39">
+        <v>1</v>
+      </c>
+      <c r="F112" s="39">
+        <v>1</v>
+      </c>
+      <c r="G112" s="39">
+        <v>1</v>
+      </c>
+      <c r="H112" s="39">
         <v>1</v>
       </c>
       <c r="I112" s="3">
@@ -5399,11 +5435,11 @@
       <c r="AH112" s="19"/>
       <c r="AI112" s="19"/>
       <c r="AJ112" s="19"/>
-      <c r="AK112" s="42" t="s">
+      <c r="AK112" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="AL112" s="44"/>
-      <c r="AM112" s="44"/>
+      <c r="AL112" s="60"/>
+      <c r="AM112" s="60"/>
     </row>
     <row r="113" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5465,6 +5501,136 @@
     <row r="170" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="W3:AJ3"/>
+    <mergeCell ref="Y87:Z87"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="K13:AJ13"/>
+    <mergeCell ref="K5:AJ5"/>
+    <mergeCell ref="K6:AJ6"/>
+    <mergeCell ref="K7:AJ7"/>
+    <mergeCell ref="K8:AJ8"/>
+    <mergeCell ref="K9:AJ9"/>
+    <mergeCell ref="K10:AJ10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="W27:AJ27"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="W24:AJ24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="W25:AJ25"/>
+    <mergeCell ref="Q18:AJ18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="Q20:AJ20"/>
+    <mergeCell ref="Q21:AJ21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="Q19:AJ19"/>
+    <mergeCell ref="Y31:AB31"/>
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="AK30:AM30"/>
+    <mergeCell ref="AK31:AM31"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="W26:AJ26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="Y30:AB30"/>
+    <mergeCell ref="AC30:AJ30"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="R53:AJ53"/>
+    <mergeCell ref="L52:AJ52"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AC47:AE47"/>
+    <mergeCell ref="AC48:AE48"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="Y86:Z86"/>
+    <mergeCell ref="Z75:AB75"/>
+    <mergeCell ref="AC77:AE77"/>
+    <mergeCell ref="AC78:AE78"/>
+    <mergeCell ref="AC79:AE79"/>
+    <mergeCell ref="AK74:AL74"/>
+    <mergeCell ref="AK75:AL75"/>
+    <mergeCell ref="AC74:AJ74"/>
+    <mergeCell ref="Z74:AB74"/>
+    <mergeCell ref="AK82:AM82"/>
+    <mergeCell ref="AK83:AM83"/>
+    <mergeCell ref="AK84:AM84"/>
+    <mergeCell ref="AC91:AJ91"/>
+    <mergeCell ref="AC80:AE80"/>
+    <mergeCell ref="AC81:AE81"/>
+    <mergeCell ref="AH75:AJ75"/>
+    <mergeCell ref="AK77:AM77"/>
+    <mergeCell ref="AK78:AM78"/>
+    <mergeCell ref="AK79:AM79"/>
+    <mergeCell ref="AK80:AM80"/>
+    <mergeCell ref="AK81:AM81"/>
+    <mergeCell ref="AK112:AM112"/>
+    <mergeCell ref="AK111:AM111"/>
+    <mergeCell ref="AK108:AM108"/>
+    <mergeCell ref="AK107:AM107"/>
+    <mergeCell ref="R100:S100"/>
+    <mergeCell ref="R101:S101"/>
+    <mergeCell ref="R102:S102"/>
+    <mergeCell ref="R103:S103"/>
+    <mergeCell ref="AC92:AJ92"/>
+    <mergeCell ref="R94:S94"/>
+    <mergeCell ref="R95:S95"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="R98:S98"/>
+    <mergeCell ref="R99:S99"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AK37:AM37"/>
+    <mergeCell ref="AK38:AM38"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="AC44:AE44"/>
+    <mergeCell ref="AC45:AE45"/>
+    <mergeCell ref="AK45:AM45"/>
+    <mergeCell ref="AK46:AM46"/>
+    <mergeCell ref="AK47:AM47"/>
+    <mergeCell ref="AK48:AM48"/>
+    <mergeCell ref="AK39:AM39"/>
+    <mergeCell ref="AK40:AM40"/>
+    <mergeCell ref="AK41:AM41"/>
+    <mergeCell ref="AK42:AM42"/>
+    <mergeCell ref="AK43:AM43"/>
+    <mergeCell ref="AK44:AM44"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="A3:D3"/>
@@ -5489,136 +5655,6 @@
     <mergeCell ref="K11:AJ11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="K12:AJ12"/>
-    <mergeCell ref="AC44:AE44"/>
-    <mergeCell ref="AC45:AE45"/>
-    <mergeCell ref="AK45:AM45"/>
-    <mergeCell ref="AK46:AM46"/>
-    <mergeCell ref="AK47:AM47"/>
-    <mergeCell ref="AK48:AM48"/>
-    <mergeCell ref="AK39:AM39"/>
-    <mergeCell ref="AK40:AM40"/>
-    <mergeCell ref="AK41:AM41"/>
-    <mergeCell ref="AK42:AM42"/>
-    <mergeCell ref="AK43:AM43"/>
-    <mergeCell ref="AK44:AM44"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AK37:AM37"/>
-    <mergeCell ref="AK38:AM38"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="AK112:AM112"/>
-    <mergeCell ref="AK111:AM111"/>
-    <mergeCell ref="AK108:AM108"/>
-    <mergeCell ref="AK107:AM107"/>
-    <mergeCell ref="R100:S100"/>
-    <mergeCell ref="R101:S101"/>
-    <mergeCell ref="R102:S102"/>
-    <mergeCell ref="R103:S103"/>
-    <mergeCell ref="AC92:AJ92"/>
-    <mergeCell ref="R94:S94"/>
-    <mergeCell ref="R95:S95"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="R97:S97"/>
-    <mergeCell ref="R98:S98"/>
-    <mergeCell ref="R99:S99"/>
-    <mergeCell ref="AC91:AJ91"/>
-    <mergeCell ref="AC80:AE80"/>
-    <mergeCell ref="AC81:AE81"/>
-    <mergeCell ref="AH75:AJ75"/>
-    <mergeCell ref="AK77:AM77"/>
-    <mergeCell ref="AK78:AM78"/>
-    <mergeCell ref="AK79:AM79"/>
-    <mergeCell ref="AK80:AM80"/>
-    <mergeCell ref="AK81:AM81"/>
-    <mergeCell ref="Y86:Z86"/>
-    <mergeCell ref="Z75:AB75"/>
-    <mergeCell ref="AC77:AE77"/>
-    <mergeCell ref="AC78:AE78"/>
-    <mergeCell ref="AC79:AE79"/>
-    <mergeCell ref="AK74:AL74"/>
-    <mergeCell ref="AK75:AL75"/>
-    <mergeCell ref="AC74:AJ74"/>
-    <mergeCell ref="Z74:AB74"/>
-    <mergeCell ref="AK82:AM82"/>
-    <mergeCell ref="AK83:AM83"/>
-    <mergeCell ref="AK84:AM84"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="R53:AJ53"/>
-    <mergeCell ref="L52:AJ52"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AC47:AE47"/>
-    <mergeCell ref="AC48:AE48"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="Y31:AB31"/>
-    <mergeCell ref="AG31:AJ31"/>
-    <mergeCell ref="AK30:AM30"/>
-    <mergeCell ref="AK31:AM31"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="W27:AJ27"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="Y30:AB30"/>
-    <mergeCell ref="AC30:AJ30"/>
-    <mergeCell ref="Q18:AJ18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="Q21:AJ21"/>
-    <mergeCell ref="Q19:AJ19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="Q20:AJ20"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="W3:AJ3"/>
-    <mergeCell ref="Y87:Z87"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="K13:AJ13"/>
-    <mergeCell ref="K5:AJ5"/>
-    <mergeCell ref="K6:AJ6"/>
-    <mergeCell ref="K7:AJ7"/>
-    <mergeCell ref="K8:AJ8"/>
-    <mergeCell ref="K9:AJ9"/>
-    <mergeCell ref="K10:AJ10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="W24:AJ24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="W25:AJ25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="W26:AJ26"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="43" fitToHeight="4" orientation="portrait" verticalDpi="0" r:id="rId1"/>
